--- a/Drawing Performance Comparisons.xlsx
+++ b/Drawing Performance Comparisons.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul.Lewis\ASI\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\WpfDrawingOptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1DE231-EA71-4ABC-BE2E-99F17CDE9A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E19D75-E4DB-43DF-AFD4-5CEEFA2B9DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{563D8AC9-4C7D-4D50-B9DD-B1DB98568A2D}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{563D8AC9-4C7D-4D50-B9DD-B1DB98568A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>Technology</t>
   </si>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t>Immediate</t>
+  </si>
+  <si>
+    <t>Compositable?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -226,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -246,6 +258,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -564,7 +585,7 @@
   <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,6 +595,7 @@
     <col min="3" max="3" width="5.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -602,7 +624,9 @@
       <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6"/>
+      <c r="H1" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="I1" s="6" t="s">
         <v>2</v>
       </c>
@@ -656,6 +680,9 @@
       <c r="G2">
         <v>6</v>
       </c>
+      <c r="H2" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="I2" s="2">
         <v>25000</v>
       </c>
@@ -682,6 +709,9 @@
       <c r="G3">
         <v>7</v>
       </c>
+      <c r="H3" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="I3" s="2">
         <v>25000</v>
       </c>
@@ -707,6 +737,9 @@
       </c>
       <c r="G4" t="s">
         <v>29</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="I4" s="2"/>
       <c r="M4" s="2"/>
@@ -726,6 +759,9 @@
       <c r="G5" s="4">
         <v>6</v>
       </c>
+      <c r="H5" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="I5" s="2">
         <v>25000</v>
       </c>
@@ -758,6 +794,9 @@
       <c r="G6" s="4">
         <v>13</v>
       </c>
+      <c r="H6" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="I6" s="2">
         <v>25000</v>
       </c>
@@ -784,6 +823,9 @@
       <c r="G7" s="4">
         <v>0.1</v>
       </c>
+      <c r="H7" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="I7" s="2">
         <v>25000</v>
       </c>
@@ -810,6 +852,9 @@
       <c r="G8">
         <v>0.2</v>
       </c>
+      <c r="H8" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="I8" s="2">
         <v>25000</v>
       </c>
@@ -835,6 +880,9 @@
       </c>
       <c r="G9">
         <v>20</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="I9" s="2"/>
       <c r="M9" s="2"/>
@@ -863,7 +911,9 @@
       <c r="G10" s="1">
         <v>60</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="I10" s="3">
         <v>25000</v>
       </c>
@@ -926,7 +976,9 @@
       <c r="G11" s="7">
         <v>60</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="I11" s="8">
         <v>25000</v>
       </c>
@@ -989,7 +1041,9 @@
       <c r="G12" s="1">
         <v>60</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="I12" s="3">
         <v>25000</v>
       </c>
@@ -1052,7 +1106,9 @@
       <c r="G13" s="7">
         <v>30</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="I13" s="8">
         <v>25000</v>
       </c>
@@ -1115,7 +1171,9 @@
       <c r="G14" s="1">
         <v>45</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="I14" s="3">
         <v>25000</v>
       </c>

--- a/Drawing Performance Comparisons.xlsx
+++ b/Drawing Performance Comparisons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\WpfDrawingOptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E19D75-E4DB-43DF-AFD4-5CEEFA2B9DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33807CE8-EF7A-49BF-A39E-10F5AB60D1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{563D8AC9-4C7D-4D50-B9DD-B1DB98568A2D}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{563D8AC9-4C7D-4D50-B9DD-B1DB98568A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>Technology</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>Immediate</t>
   </si>
   <si>
     <t>Compositable?</t>
@@ -585,7 +582,7 @@
   <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +622,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>2</v>
@@ -681,7 +678,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" s="2">
         <v>25000</v>
@@ -710,7 +707,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" s="2">
         <v>25000</v>
@@ -739,7 +736,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" s="2"/>
       <c r="M4" s="2"/>
@@ -754,13 +751,13 @@
         <v>5000</v>
       </c>
       <c r="F5" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G5" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" s="2">
         <v>25000</v>
@@ -776,9 +773,6 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>32</v>
-      </c>
       <c r="C6" s="10" t="s">
         <v>31</v>
       </c>
@@ -789,13 +783,13 @@
         <v>5000</v>
       </c>
       <c r="F6" s="4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G6" s="4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" s="2">
         <v>25000</v>
@@ -818,13 +812,13 @@
         <v>5000</v>
       </c>
       <c r="F7" s="4">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G7" s="4">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" s="2">
         <v>25000</v>
@@ -853,7 +847,7 @@
         <v>0.2</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8" s="2">
         <v>25000</v>
@@ -882,7 +876,7 @@
         <v>20</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" s="2"/>
       <c r="M9" s="2"/>
@@ -912,7 +906,7 @@
         <v>60</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10" s="3">
         <v>25000</v>
@@ -977,7 +971,7 @@
         <v>60</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" s="8">
         <v>25000</v>
@@ -1042,7 +1036,7 @@
         <v>60</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="3">
         <v>25000</v>
@@ -1107,7 +1101,7 @@
         <v>30</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13" s="8">
         <v>25000</v>
@@ -1172,7 +1166,7 @@
         <v>45</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I14" s="3">
         <v>25000</v>
